--- a/tables/xls/it/71_Mezzi attesi.xlsx
+++ b/tables/xls/it/71_Mezzi attesi.xlsx
@@ -16,17 +16,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
   <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>PROVENIENZA</t>
+  </si>
+  <si>
+    <t>MEZZO</t>
+  </si>
+  <si>
     <t>MARCA E MODELLO</t>
   </si>
   <si>
     <t>TARGA</t>
   </si>
   <si>
+    <t>NOME REFERENTE</t>
+  </si>
+  <si>
+    <t>NUMERO TELEFONO REFERENTE</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>NUMERO</t>
+  </si>
+  <si>
     <t>4X4</t>
   </si>
   <si>
@@ -36,21 +57,12 @@
     <t>POSTI A SEDERE</t>
   </si>
   <si>
-    <t>TURNO</t>
-  </si>
-  <si>
-    <t>PROVINCIA</t>
-  </si>
-  <si>
     <t>CODICE ORGANIZZAZIONE</t>
   </si>
   <si>
     <t>SERVIZIO</t>
   </si>
   <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -60,103 +72,106 @@
     <t>Nome (abbrev.)</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Elenco di valori (separati da virgola)</t>
+  </si>
+  <si>
+    <t>Dim. massima</t>
+  </si>
+  <si>
+    <t>Obbligatorio</t>
+  </si>
+  <si>
+    <t>Valore predefinito</t>
+  </si>
+  <si>
+    <t>Sola lettura</t>
+  </si>
+  <si>
+    <t>Visibile</t>
+  </si>
+  <si>
+    <t>Forza</t>
+  </si>
+  <si>
+    <t>Valore unico</t>
+  </si>
+  <si>
+    <t>Opzioni campo</t>
+  </si>
+  <si>
+    <t>Scheda dati per suggerimento</t>
+  </si>
+  <si>
+    <t>Campo suggerimento</t>
+  </si>
+  <si>
+    <t>Testo aiuto</t>
+  </si>
+  <si>
+    <t>Configurazione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Nome Scheda Dati</t>
+  </si>
+  <si>
+    <t>Descrizione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Ordina scheda per</t>
+  </si>
+  <si>
+    <t>Direzione ordinamento</t>
+  </si>
+  <si>
+    <t>Consenti modifiche</t>
+  </si>
+  <si>
+    <t>Consenti inserimenti</t>
+  </si>
+  <si>
+    <t>Consenti cancellazioni</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>VOLONTARI ATTESI</t>
+  </si>
+  <si>
+    <t>NUM. TEL. REFERENTE</t>
+  </si>
+  <si>
+    <t>Numero Intero</t>
+  </si>
+  <si>
     <t>COD. ORGANIZZAZIONE</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Testo</t>
-  </si>
-  <si>
-    <t>Numero Intero</t>
-  </si>
-  <si>
-    <t>Elenco di valori (separati da virgola)</t>
-  </si>
-  <si>
-    <t>Dim. massima</t>
-  </si>
-  <si>
-    <t>Obbligatorio</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Valore predefinito</t>
-  </si>
-  <si>
-    <t>Sola lettura</t>
-  </si>
-  <si>
-    <t>Visibile</t>
-  </si>
-  <si>
-    <t>Sì</t>
-  </si>
-  <si>
-    <t>Forza</t>
-  </si>
-  <si>
-    <t>Valore unico</t>
-  </si>
-  <si>
-    <t>Opzioni campo</t>
-  </si>
-  <si>
-    <t>Scheda dati per suggerimento</t>
-  </si>
-  <si>
-    <t>VOLONTARI ATTESI</t>
-  </si>
-  <si>
-    <t>Campo suggerimento</t>
-  </si>
-  <si>
-    <t>Testo aiuto</t>
-  </si>
-  <si>
-    <t>Configurazione Scheda Dati</t>
+    <t>MEZZI ATTESI</t>
+  </si>
+  <si>
+    <t>Mezzi attesi</t>
+  </si>
+  <si>
+    <t>Crescente</t>
+  </si>
+  <si>
+    <t>RISORSE ATTESE</t>
   </si>
   <si>
     <t>Elenco segnalibri</t>
-  </si>
-  <si>
-    <t>Nome Scheda Dati</t>
-  </si>
-  <si>
-    <t>MEZZI ATTESI</t>
-  </si>
-  <si>
-    <t>Descrizione Scheda Dati</t>
-  </si>
-  <si>
-    <t>Mezzi attesi</t>
-  </si>
-  <si>
-    <t>Ordina scheda per</t>
-  </si>
-  <si>
-    <t>Direzione ordinamento</t>
-  </si>
-  <si>
-    <t>Crescente</t>
-  </si>
-  <si>
-    <t>Consenti modifiche</t>
-  </si>
-  <si>
-    <t>Consenti inserimenti</t>
-  </si>
-  <si>
-    <t>Consenti cancellazioni</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>RISORSE ATTESE</t>
   </si>
 </sst>
 </file>
@@ -180,10 +195,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +206,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +515,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,13 +551,25 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -554,15 +578,16 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -607,10 +632,22 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -619,39 +656,51 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
       <c r="J2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M2">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="Q2">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -675,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -689,51 +738,75 @@
       <c r="M3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -747,10 +820,14 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -788,49 +865,73 @@
       <c r="M6">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>255</v>
+      </c>
+      <c r="O6">
+        <v>255</v>
+      </c>
+      <c r="P6">
+        <v>255</v>
+      </c>
+      <c r="Q6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -846,164 +947,208 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
       <c r="M11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>28</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -1017,13 +1162,17 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1036,10 +1185,14 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1055,10 +1208,14 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1072,84 +1229,88 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1158,5 +1319,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tables/xls/it/71_Mezzi attesi.xlsx
+++ b/tables/xls/it/71_Mezzi attesi.xlsx
@@ -514,6 +514,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="30" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="5" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
